--- a/LeetCode/PerformanceSummary.xlsx
+++ b/LeetCode/PerformanceSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santh\Google Drive (ambi.santhos@gmail.com)\Ambika\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambika/MyWorkDirectory/Official/github/LearnPython/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBF2387-C8B4-41DB-96DA-F6E9A293A0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D450E-3C40-534F-A2CD-41D806E59404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0296AE11-853F-462D-8F7B-ED06931CB267}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{0296AE11-853F-462D-8F7B-ED06931CB267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -324,6 +324,17 @@
   </si>
   <si>
     <t>Techgig</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Runtime: 35 ms, faster than 87.83% of Python3 online submissions for Text Justification.
+Memory Usage: 13.9 MB, less than 54.21% of Python3 online submissions for Text Justification.</t>
+  </si>
+  <si>
+    <t>Runtime: 2287 ms, faster than 5.01% of Python3 online submissions for Maximum Subarray.
+Memory Usage: 27.9 MB, less than 78.03% of Python3 online submissions for Maximum Subarray.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -464,6 +475,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -780,23 +798,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E71844-8211-441A-BA0E-5913ED0A38BD}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="110.5703125" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="110.5" customWidth="1"/>
+    <col min="7" max="7" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -840,7 +858,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -863,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -884,7 +902,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -905,7 +923,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -926,7 +944,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -947,7 +965,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -968,7 +986,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -989,7 +1007,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1010,7 +1028,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1029,7 +1047,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1050,7 +1068,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1071,7 +1089,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1115,7 +1133,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1136,7 +1154,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1157,7 +1175,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1199,7 +1217,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1222,7 +1240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1245,7 +1263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1354,13 +1372,13 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1381,7 +1399,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1427,7 +1445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1542,7 +1560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1585,6 +1603,29 @@
         <v>85</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>65</v>
       </c>
     </row>
